--- a/data/Ingenieria-Admistracion2025/Ingenieria-Admistracion2025/Cadena de valor.xlsx
+++ b/data/Ingenieria-Admistracion2025/Ingenieria-Admistracion2025/Cadena de valor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1FILES\3EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aSISTEMAS\incamotors-landing\data\Ingenieria-Admistracion2025\Ingenieria-Admistracion2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{EA79C8DF-2B6C-4D9E-9628-BE910AC2E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3746FF-50D4-4412-BC17-16F8ADE53B72}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A098844-E4F6-44E5-AA02-AEA18CA5670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -141,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,187 +1228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,65 +1253,246 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="FONS" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1948,33 +1951,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5">
-      <c r="C1" s="103" t="s">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.7">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
@@ -1989,9 +1992,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="4.5" customHeight="1">
+    <row r="3" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
@@ -2006,43 +2009,43 @@
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="25.5">
+    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A4" s="42"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="13"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="56.25" customHeight="1">
+    <row r="5" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="14"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="6" customHeight="1">
+    <row r="6" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2055,43 +2058,43 @@
       <c r="L6" s="13"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="25.5">
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A7" s="42"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="126" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="13"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="60" customHeight="1">
+    <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="13"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="6" customHeight="1">
+    <row r="9" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
-      <c r="B9" s="104"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2104,43 +2107,43 @@
       <c r="L9" s="13"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A10" s="42"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="13"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="59.25" customHeight="1">
+    <row r="11" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="13"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="6" customHeight="1">
+    <row r="12" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2153,41 +2156,41 @@
       <c r="L12" s="13"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="25.5">
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A13" s="42"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="120" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="122"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="13"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="57" customHeight="1">
+    <row r="14" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="123" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
       <c r="L14" s="18"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -2202,7 +2205,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="42"/>
       <c r="B16" s="19"/>
       <c r="C16" s="25"/>
@@ -2217,173 +2220,173 @@
       <c r="L16" s="26"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="25.5" customHeight="1">
+    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="95" t="s">
+      <c r="D17" s="82"/>
+      <c r="E17" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="97" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="86"/>
+      <c r="I17" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="74" t="s">
+      <c r="J17" s="100"/>
+      <c r="K17" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="102"/>
       <c r="M17" s="44"/>
     </row>
-    <row r="18" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="30.75" customHeight="1" thickTop="1">
+    <row r="19" spans="1:13" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="91.5" customHeight="1">
+    <row r="20" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="86" t="s">
+      <c r="D20" s="89"/>
+      <c r="E20" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="97"/>
+      <c r="G20" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="65" t="s">
+      <c r="H20" s="95"/>
+      <c r="I20" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="61" t="s">
+      <c r="J20" s="125"/>
+      <c r="K20" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="111.75" customHeight="1">
+    <row r="21" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="86" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="90" t="s">
+      <c r="F21" s="97"/>
+      <c r="G21" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="65" t="s">
+      <c r="H21" s="95"/>
+      <c r="I21" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="61" t="s">
+      <c r="J21" s="125"/>
+      <c r="K21" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="92.25" customHeight="1">
+    <row r="22" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="76" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="88" t="s">
+      <c r="D22" s="105"/>
+      <c r="E22" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90" t="s">
+      <c r="F22" s="117"/>
+      <c r="G22" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="65" t="s">
+      <c r="H22" s="95"/>
+      <c r="I22" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="62"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="96.75" customHeight="1">
+    <row r="23" spans="1:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="65" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="57.75" customHeight="1">
+    <row r="24" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="67" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="1:13" ht="40.5" customHeight="1">
+    <row r="25" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
-      <c r="B25" s="92"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="47"/>
       <c r="D25" s="48"/>
       <c r="E25" s="46"/>
@@ -2396,22 +2399,22 @@
       <c r="L25" s="52"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" ht="40.5" customHeight="1">
+    <row r="26" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="1"/>
       <c r="C27" s="31"/>
@@ -2426,7 +2429,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="43"/>
     </row>
-    <row r="28" spans="1:13" ht="16.5">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="1"/>
       <c r="C28" s="30"/>
@@ -2441,55 +2444,55 @@
       <c r="L28" s="29"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" s="40" customFormat="1" ht="16.5">
+    <row r="29" spans="1:13" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
       <c r="L29" s="38"/>
       <c r="M29" s="39"/>
     </row>
-    <row r="30" spans="1:13" s="40" customFormat="1" ht="16.5">
+    <row r="30" spans="1:13" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="37"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
       <c r="K30" s="41"/>
       <c r="L30" s="38"/>
       <c r="M30" s="39"/>
     </row>
-    <row r="31" spans="1:13" s="40" customFormat="1" ht="39" customHeight="1">
+    <row r="31" spans="1:13" s="40" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37"/>
       <c r="K31" s="41"/>
       <c r="L31" s="38"/>
       <c r="M31" s="39"/>
     </row>
-    <row r="32" spans="1:13" s="40" customFormat="1" ht="16.5">
+    <row r="32" spans="1:13" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="37"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
       <c r="L32" s="38"/>
       <c r="M32" s="39"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>32</v>
       </c>
@@ -2499,29 +2502,21 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="I17:J18"/>
     <mergeCell ref="K17:L18"/>
     <mergeCell ref="C21:D21"/>
@@ -2538,24 +2533,32 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>